--- a/dist/vigilancia/browser/assets/docs/data_cdp.xlsx
+++ b/dist/vigilancia/browser/assets/docs/data_cdp.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESARROLLO\IDS\Frontera\public\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D9CBA-0A32-45CF-93D4-AB2680B40CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7227A1-F168-474F-B183-044DB3B7687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65DA2C7E-6236-4870-B042-D78544DDDE0A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,12 +26,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="174">
   <si>
     <t>Nombre_coordinador</t>
   </si>
@@ -552,6 +548,15 @@
   </si>
   <si>
     <t>PRESTACION DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>EDWIN ORLANDO COBARIA</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
+  </si>
+  <si>
+    <t>SERVICIO ATENCION A LA COMUNIDAD</t>
   </si>
 </sst>
 </file>
@@ -567,12 +572,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -587,9 +598,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,24 +941,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DFB6D7-BDA0-440E-918B-FA0D4CCA66E2}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="A111:XFD111"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="134.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="113" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="240.5703125" customWidth="1"/>
+    <col min="8" max="8" width="169.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="70.140625" customWidth="1"/>
     <col min="10" max="10" width="65.85546875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
@@ -3259,7 +3274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3414,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
@@ -3469,7 +3484,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -3539,7 +3554,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>149</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -3731,7 +3746,7 @@
         <v>160</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>135</v>
@@ -3749,7 +3764,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>139</v>
@@ -3784,7 +3799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
@@ -3795,31 +3810,31 @@
         <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
+      </c>
+      <c r="I82" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>150</v>
       </c>
@@ -3830,31 +3845,31 @@
         <v>14</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>143</v>
+        <v>59</v>
+      </c>
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>150</v>
       </c>
@@ -3865,31 +3880,31 @@
         <v>14</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>144</v>
+        <v>86</v>
+      </c>
+      <c r="I84" t="s">
+        <v>87</v>
+      </c>
+      <c r="J84" t="s">
+        <v>62</v>
       </c>
       <c r="K84" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>150</v>
       </c>
@@ -3900,77 +3915,80 @@
         <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+      <c r="J85" t="s">
+        <v>62</v>
       </c>
       <c r="K85" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" t="s">
-        <v>30</v>
+      <c r="A86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I86" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J86" t="s">
         <v>62</v>
       </c>
       <c r="K86" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -3985,27 +4003,27 @@
         <v>137</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -4020,7 +4038,7 @@
         <v>137</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K88" t="s">
         <v>169</v>
@@ -4028,19 +4046,19 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -4061,21 +4079,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -4107,10 +4122,10 @@
         <v>11</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -4119,86 +4134,86 @@
         <v>25</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" t="s">
-        <v>30</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
       </c>
-      <c r="G92" t="s">
-        <v>25</v>
+      <c r="G92" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" t="s">
-        <v>58</v>
-      </c>
-      <c r="J92" t="s">
-        <v>19</v>
+        <v>136</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" t="s">
-        <v>30</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
       </c>
-      <c r="G93" t="s">
-        <v>25</v>
+      <c r="G93" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I93" t="s">
-        <v>87</v>
-      </c>
-      <c r="J93" t="s">
-        <v>62</v>
+        <v>136</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K93" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4218,19 +4233,19 @@
         <v>160</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I94" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J94" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K94" t="s">
         <v>15</v>
@@ -4247,19 +4262,19 @@
         <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G95" t="s">
         <v>25</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I95" t="s">
         <v>58</v>
@@ -4282,25 +4297,25 @@
         <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G96" t="s">
         <v>25</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K96" t="s">
         <v>15</v>
@@ -4317,16 +4332,16 @@
         <v>11</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>86</v>
@@ -4352,22 +4367,22 @@
         <v>11</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I98" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="J98" t="s">
         <v>62</v>
@@ -4387,10 +4402,10 @@
         <v>11</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -4422,10 +4437,10 @@
         <v>11</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -4457,10 +4472,10 @@
         <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -4492,10 +4507,10 @@
         <v>11</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
@@ -4516,38 +4531,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" t="s">
+    <row r="103" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
       </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I103" t="s">
-        <v>58</v>
-      </c>
-      <c r="J103" t="s">
-        <v>19</v>
-      </c>
-      <c r="K103" t="s">
+      <c r="G103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4562,10 +4577,10 @@
         <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -4574,7 +4589,7 @@
         <v>25</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I104" t="s">
         <v>58</v>
@@ -4597,10 +4612,10 @@
         <v>11</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -4609,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I105" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J105" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K105" t="s">
         <v>15</v>
@@ -4632,16 +4647,16 @@
         <v>11</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>86</v>
@@ -4656,38 +4671,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" t="s">
-        <v>30</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I107" t="s">
-        <v>58</v>
-      </c>
-      <c r="J107" t="s">
-        <v>19</v>
-      </c>
-      <c r="K107" t="s">
+    <row r="107" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4702,25 +4717,25 @@
         <v>11</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K108" t="s">
         <v>15</v>
@@ -4737,10 +4752,10 @@
         <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -4749,13 +4764,13 @@
         <v>25</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I109" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J109" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K109" t="s">
         <v>15</v>
@@ -4772,102 +4787,698 @@
         <v>11</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" t="s">
+        <v>58</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I111" t="s">
+        <v>87</v>
+      </c>
+      <c r="J111" t="s">
+        <v>62</v>
+      </c>
+      <c r="K111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I112" t="s">
+        <v>87</v>
+      </c>
+      <c r="J112" t="s">
+        <v>62</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" t="s">
+        <v>58</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I115" t="s">
+        <v>58</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I116" t="s">
+        <v>87</v>
+      </c>
+      <c r="J116" t="s">
+        <v>62</v>
+      </c>
+      <c r="K116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
         <v>40</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I117" t="s">
         <v>87</v>
       </c>
-      <c r="J110" t="s">
-        <v>62</v>
-      </c>
-      <c r="K110" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="J117" t="s">
+        <v>62</v>
+      </c>
+      <c r="K117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>9</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B121" t="s">
         <v>10</v>
       </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
         <v>24</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H121" t="s">
         <v>17</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I121" t="s">
         <v>18</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J121" t="s">
         <v>19</v>
       </c>
-      <c r="K111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="K121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B122" t="s">
         <v>10</v>
       </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" t="s">
         <v>26</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I122" t="s">
         <v>27</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J122" t="s">
         <v>19</v>
       </c>
-      <c r="K112" t="s">
-        <v>15</v>
+      <c r="K122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" t="s">
+        <v>172</v>
+      </c>
+      <c r="G123" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" t="s">
+        <v>58</v>
+      </c>
+      <c r="J123" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F124" t="s">
+        <v>172</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I124" t="s">
+        <v>58</v>
+      </c>
+      <c r="J124" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F125" t="s">
+        <v>172</v>
+      </c>
+      <c r="G125" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I125" t="s">
+        <v>87</v>
+      </c>
+      <c r="J125" t="s">
+        <v>62</v>
+      </c>
+      <c r="K125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F126" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" t="s">
+        <v>40</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126" t="s">
+        <v>87</v>
+      </c>
+      <c r="J126" t="s">
+        <v>62</v>
+      </c>
+      <c r="K126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F127" t="s">
+        <v>172</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F128" t="s">
+        <v>172</v>
+      </c>
+      <c r="G128" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I128" t="s">
+        <v>137</v>
+      </c>
+      <c r="J128" t="s">
+        <v>144</v>
+      </c>
+      <c r="K128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F129" t="s">
+        <v>172</v>
+      </c>
+      <c r="G129" t="s">
+        <v>139</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I129" t="s">
+        <v>137</v>
+      </c>
+      <c r="J129" t="s">
+        <v>144</v>
+      </c>
+      <c r="K129" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K112" xr:uid="{29DFB6D7-BDA0-440E-918B-FA0D4CCA66E2}"/>
+  <autoFilter ref="A1:K129" xr:uid="{29DFB6D7-BDA0-440E-918B-FA0D4CCA66E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>